--- a/Session5/sample/population.xlsx
+++ b/Session5/sample/population.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mlcat23-my.sharepoint.com/personal/masato_naka_mlcat23_onmicrosoft_com/Documents/udemy-git/udemy-pythonbeginner/Session5/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{1FE7891B-C272-4662-A444-FD286DAA9A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{677F4A80-4489-4C25-B62A-6C0676F3E0E8}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{1FE7891B-C272-4662-A444-FD286DAA9A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78818751-BD93-48E9-B999-FD478CD5A2C4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8760629C-F479-4079-BC4C-8BBFDC6CB1C7}"/>
+    <workbookView minimized="1" xWindow="1650" yWindow="-14550" windowWidth="21600" windowHeight="11715" xr2:uid="{8760629C-F479-4079-BC4C-8BBFDC6CB1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$222</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2348,7 +2351,7 @@
   <dimension ref="A1:D222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2357,6 +2360,8 @@
     <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5468,6 +5473,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D222" xr:uid="{688ABFD1-BEAF-4117-916C-A0B146AA765B}"/>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
